--- a/Nodes.xlsx
+++ b/Nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e097c758153d376/Desktop/Masterarbeit/Transportation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="11_F25DC773A252ABDACC10489A915A66D05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A06D44-AC40-482B-8AEE-61760DC1712B}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="11_F25DC773A252ABDACC10489A915A66D05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80C1895E-EBBA-47E2-B119-CE724A4A69B9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Duisburg</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Mülheim an der Ruhr</t>
   </si>
   <si>
-    <t>Essen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dortmund </t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t xml:space="preserve">Gelsenkirchen </t>
   </si>
   <si>
-    <t>Bottrop</t>
-  </si>
-  <si>
     <t>Oberhausen</t>
   </si>
   <si>
@@ -106,6 +100,9 @@
   </si>
   <si>
     <t>latitude</t>
+  </si>
+  <si>
+    <t>Essen_Botrrop</t>
   </si>
 </sst>
 </file>
@@ -130,18 +127,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,16 +162,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -483,19 +474,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -506,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>51.459995999999997</v>
+        <v>51.437114000000001</v>
       </c>
       <c r="D2" s="7">
-        <v>6.7977809999999996</v>
+        <v>6.7611350000000003</v>
       </c>
       <c r="E2" s="2">
         <v>164.6</v>
@@ -523,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>51.431764000000001</v>
+        <v>51.413755999999999</v>
       </c>
       <c r="D3" s="7">
-        <v>6.8751572999999997</v>
+        <v>6.8806149999999997</v>
       </c>
       <c r="E3" s="2">
         <v>57.1</v>
@@ -537,16 +528,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
-        <v>51.404407999999997</v>
+        <v>51.5050709</v>
       </c>
       <c r="D4" s="7">
-        <v>7.0463233000000001</v>
+        <v>6.9742139999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>189.92</v>
+        <v>229.51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -554,13 +545,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>51.525205999999997</v>
+        <v>51.525959</v>
       </c>
       <c r="D5" s="7">
-        <v>7.4438649999999997</v>
+        <v>7.4378960000000003</v>
       </c>
       <c r="E5" s="2">
         <v>188.87</v>
@@ -571,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="8">
-        <v>51.582929</v>
+        <v>51.584794000000002</v>
       </c>
       <c r="D6" s="9">
-        <v>7.2891959999999996</v>
+        <v>7.295763</v>
       </c>
       <c r="E6" s="2">
         <v>24.42</v>
@@ -588,13 +579,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
-        <v>51.564301999999998</v>
+        <v>51.554442000000002</v>
       </c>
       <c r="D7" s="7">
-        <v>7.2408039999999998</v>
+        <v>7.1993200000000002</v>
       </c>
       <c r="E7" s="2">
         <v>51.81</v>
@@ -605,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>51.530746999999998</v>
+        <v>51.544815999999997</v>
       </c>
       <c r="D8" s="7">
-        <v>7.0553559999999997</v>
+        <v>7.0950379999999997</v>
       </c>
       <c r="E8" s="2">
         <v>85.75</v>
@@ -622,16 +613,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
-        <v>51.499228000000002</v>
+        <v>51.482543999999997</v>
       </c>
       <c r="D9" s="7">
-        <v>6.9456439999999997</v>
+        <v>6.8241610000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>39.590000000000003</v>
+        <v>70.61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -639,16 +630,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6">
-        <v>51.482973999999999</v>
+        <v>51.561551000000001</v>
       </c>
       <c r="D10" s="7">
-        <v>6.8239999999999998</v>
+        <v>6.6921929999999996</v>
       </c>
       <c r="E10" s="2">
-        <v>70.61</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -656,16 +647,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
-        <v>51.561551000000001</v>
+        <v>51.674987999999999</v>
       </c>
       <c r="D11" s="7">
-        <v>6.6921929999999996</v>
+        <v>7.7541029999999997</v>
       </c>
       <c r="E11" s="2">
-        <v>22.5</v>
+        <v>59.08</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -673,16 +664,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" s="6">
-        <v>51.693204000000001</v>
+        <v>51.581029999999998</v>
       </c>
       <c r="D12" s="7">
-        <v>7.8405690000000003</v>
+        <v>6.6542839999999996</v>
       </c>
       <c r="E12" s="2">
-        <v>59.08</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -690,16 +681,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6">
-        <v>51.629204999999999</v>
+        <v>51.662911000000001</v>
       </c>
       <c r="D13" s="7">
-        <v>6.6419050000000004</v>
+        <v>6.5885689999999997</v>
       </c>
       <c r="E13" s="2">
-        <v>11.94</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -707,16 +698,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>51.645454000000001</v>
+        <v>51.645493999999999</v>
       </c>
       <c r="D14" s="7">
-        <v>6.6044539999999996</v>
+        <v>6.7663330000000004</v>
       </c>
       <c r="E14" s="2">
-        <v>20.05</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -724,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="6">
-        <v>51.648273000000003</v>
+        <v>51.664197000000001</v>
       </c>
       <c r="D15" s="7">
-        <v>6.7736599999999996</v>
+        <v>6.9530589999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>4.5599999999999996</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -741,16 +732,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6">
-        <v>51.662142000000003</v>
+        <v>51.727077000000001</v>
       </c>
       <c r="D16" s="7">
-        <v>7.0036930000000002</v>
+        <v>7.1838360000000003</v>
       </c>
       <c r="E16" s="2">
-        <v>24.9</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -758,16 +749,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="6">
-        <v>51.713169000000001</v>
+        <v>51.633752000000001</v>
       </c>
       <c r="D17" s="7">
-        <v>7.2667460000000004</v>
+        <v>7.3399830000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>12.82</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -775,16 +766,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6">
-        <v>51.653877000000001</v>
+        <v>51.597718999999998</v>
       </c>
       <c r="D18" s="7">
-        <v>7.3611529999999998</v>
+        <v>7.5285190000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>11.82</v>
+        <v>28.31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -792,16 +783,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6">
-        <v>51.602215000000001</v>
+        <v>51.639327000000002</v>
       </c>
       <c r="D19" s="7">
-        <v>7.4910909999999999</v>
+        <v>7.3764240000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>28.31</v>
+        <v>9.89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -809,16 +800,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6">
-        <v>51.591549000000001</v>
+        <v>51.670865999999997</v>
       </c>
       <c r="D20" s="7">
-        <v>7.3924830000000004</v>
+        <v>7.0329829999999998</v>
       </c>
       <c r="E20" s="2">
-        <v>9.89</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -826,16 +817,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6">
-        <v>51.693497999999998</v>
+        <v>51.676789999999997</v>
       </c>
       <c r="D21" s="7">
-        <v>7.0920240000000003</v>
+        <v>6.4732700000000003</v>
       </c>
       <c r="E21" s="2">
-        <v>28.62</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -843,37 +834,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6">
-        <v>51.676789999999997</v>
+        <v>51.564498</v>
       </c>
       <c r="D22" s="7">
-        <v>6.4732700000000003</v>
+        <v>6.5992839999999999</v>
       </c>
       <c r="E22" s="2">
-        <v>7.1</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6">
-        <v>51.587325999999997</v>
-      </c>
-      <c r="D23" s="7">
-        <v>6.5963419999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10.48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
